--- a/biology/Histoire de la zoologie et de la botanique/Frederick_Stratten_Russell/Frederick_Stratten_Russell.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Frederick_Stratten_Russell/Frederick_Stratten_Russell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Stratten Russell est un zoologiste britannique, né le 3 novembre 1897 à Bridport, Dorset et mort le 5 juin 1984.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils de William Russell et de Lucy née Newman. Il obtient son Bachelor of Arts au Gonville et Caius College de Cambridge en 1921. Il se marie le 25 septembre 1923 avec Gweneth Kate Moy Evans (?-1978), union dont naîtra un fils, William.
 Russell est profondément influencé par l’océanographe Johan Hjort (1869-1948). C’est ce dernier qui lui permet d’obtenir un poste d’assistant auprès du directeur du département de recherche sur la pêche du gouvernement égyptien en 1922-1923. Grâce à son ancien professeur Edgar Johnson Allen (1866-1942), il entre à la station de biologie marine de Plymouth de 1924 à 1965 qu’il dirige de 1945 à 1965. Il fait partie de l’expédition sur la grande barrière de corail en 1928-1929. Il fait partie de la commission océanographique de 1950 à 1965.
@@ -548,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.</t>
         </is>
